--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2147259.037054378</v>
+        <v>2145006.957343171</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>114.4918089738222</v>
       </c>
       <c r="E2" t="n">
-        <v>75.45713216103655</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -868,22 +868,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>150.2062474346973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>158.2598945289029</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>82.99473116157712</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>71.52923230912145</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>66.23125412673316</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>13.02719212039586</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177685</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814307</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>42.67804628306436</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>217.0914199928484</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187887</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503986</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428256</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>212.4076860934771</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703276</v>
+        <v>21.90286287505554</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>45.36631724422238</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182025</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805176295</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>101.0545458193701</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.83025205764035</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.511541534052</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.6472505928856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943747</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943747</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D2" t="n">
-        <v>1308.370295943747</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4516,22 +4516,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1645.778206672847</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1645.778206672847</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.795585684488</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810557</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>3143.063403329072</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>2812.000515985501</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>2812.000515985501</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>2438.534757724422</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>2048.39542574861</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1914.135768168901</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1914.135768168901</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1914.135768168901</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1914.135768168901</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,22 +4799,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4823,7 +4823,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1708.010285469454</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>935.919076328589</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>380.4321398396067</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5124,10 +5124,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438167</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121652</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121652</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121652</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270452</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797189</v>
@@ -5200,49 +5200,49 @@
         <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038357</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797759</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332389</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,25 +5358,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>929.7309773356194</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>929.7309773356194</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,19 +5510,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,7 +5531,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5540,13 +5540,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5741,16 @@
         <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
@@ -5762,13 +5762,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452603</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718124</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.528408326419</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>198.0274703142558</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5966,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206043</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926974</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2401.138520707309</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2218.283686362213</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1998.682221385154</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1709.606994729352</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1709.606994729352</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1420.189824692392</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>1192.200273794374</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>971.4076946508441</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6248,25 +6248,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.7540666811232</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532163</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038357</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797759</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U28" t="n">
-        <v>2125.286319795758</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V28" t="n">
-        <v>1870.601831589871</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W28" t="n">
-        <v>1581.18466155291</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X28" t="n">
-        <v>1353.195110654893</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.402531511363</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6947,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,25 +7160,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,22 +7400,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7488,25 +7488,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7646,22 +7646,22 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>445.698492807609</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518967</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844822922</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219413</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557218874</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>13.30196929556007</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194129</v>
+        <v>143.6212754172133</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>34.97276993489153</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.00892946589928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948062</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>185.129928569874</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944545</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823371</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>18.61858572567992</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>852546.8054811124</v>
+        <v>852546.8054811123</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.2560524782</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>838304.2560524784</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516057</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516054</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>595255.2831516055</v>
       </c>
-      <c r="D2" t="n">
-        <v>595255.2831516054</v>
-      </c>
       <c r="E2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.284775254</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="K2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="L2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="M2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752542</v>
       </c>
-      <c r="L2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752547</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752543</v>
-      </c>
       <c r="P2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752541</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815704</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680571</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680577</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.9762168058</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680596</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680577</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680579</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-932387.4141255376</v>
+        <v>-932387.4141255373</v>
       </c>
       <c r="C6" t="n">
-        <v>396357.3316020553</v>
+        <v>396357.3316020551</v>
       </c>
       <c r="D6" t="n">
-        <v>396357.3316020548</v>
+        <v>396357.3316020551</v>
       </c>
       <c r="E6" t="n">
-        <v>146869.3169271858</v>
+        <v>146834.5790017501</v>
       </c>
       <c r="F6" t="n">
-        <v>472281.7787345412</v>
+        <v>472247.0408091058</v>
       </c>
       <c r="G6" t="n">
-        <v>472281.7787345413</v>
+        <v>472247.0408091058</v>
       </c>
       <c r="H6" t="n">
-        <v>472281.7787345412</v>
+        <v>472247.0408091056</v>
       </c>
       <c r="I6" t="n">
-        <v>472281.7787345413</v>
+        <v>472247.0408091056</v>
       </c>
       <c r="J6" t="n">
-        <v>254750.5763372641</v>
+        <v>254715.8384118279</v>
       </c>
       <c r="K6" t="n">
-        <v>472281.7787345412</v>
+        <v>472247.0408091057</v>
       </c>
       <c r="L6" t="n">
-        <v>472281.7787345417</v>
+        <v>472247.0408091057</v>
       </c>
       <c r="M6" t="n">
-        <v>387226.7507990297</v>
+        <v>387192.012873594</v>
       </c>
       <c r="N6" t="n">
-        <v>472281.7787345417</v>
+        <v>472247.0408091057</v>
       </c>
       <c r="O6" t="n">
-        <v>472281.7787345413</v>
+        <v>472247.0408091055</v>
       </c>
       <c r="P6" t="n">
-        <v>472281.7787345412</v>
+        <v>472247.0408091054</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="E2" t="n">
-        <v>306.4732379112252</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>75.50340795433985</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>60.3247588231919</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.19303062659871</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>179.4659396497805</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>101.0155669718947</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>75.90496054965148</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029145</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>277.256643680326</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,13 +28059,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>147.0909790483775</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>69.12041821276446</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28102,10 +28102,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.025656883610093e-12</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-8.447311815557598e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29436,7 +29436,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>9.866460200571274e-12</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -29457,7 +29457,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31844,19 +31844,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>233.9389431948324</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31865,7 +31865,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32078,10 +32078,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305192</v>
+        <v>362.1804684129204</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32315,28 +32315,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,31 +32552,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963271</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32707,7 +32707,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817577</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716333</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>396.9700886943664</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>508.3747716989726</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,34 +33257,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>172.8142548092788</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897919</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
@@ -34442,13 +34442,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,7 +34469,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>91.80490927281407</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096363</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191315</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561602</v>
+        <v>224.3390294385614</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,13 +35741,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164529</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36297,7 +36297,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998997</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.65947400496658</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>254.8360547723481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>369.8203919190984</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096363</v>
       </c>
       <c r="L28" t="n">
         <v>394.3420143191315</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991771</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38032,7 +38032,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
